--- a/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A40A12-4C8F-4473-9A1B-9A753239CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4265A1-0A66-4F71-85E3-920C0D30CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA5B77D0-4E00-4B0E-9FBB-7155F2368C34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2C23A3A-E1A9-4B1C-ADF0-E99F8A413DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1771 +77,1789 @@
     <t>11,31%</t>
   </si>
   <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>82,37%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>83,44%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E393BC0-9C35-49C1-8A1A-B7ED7689180F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81C4533-23AA-4D2E-9B9F-35771A6423A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3337,13 +3355,13 @@
         <v>96638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3376,13 @@
         <v>571402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -3373,13 +3391,13 @@
         <v>585206</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1128</v>
@@ -3388,13 +3406,13 @@
         <v>1156608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3462,13 +3480,13 @@
         <v>45297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3477,13 +3495,13 @@
         <v>57849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -3492,13 +3510,13 @@
         <v>103146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3531,13 @@
         <v>698498</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>692</v>
@@ -3528,13 +3546,13 @@
         <v>725662</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1382</v>
@@ -3543,13 +3561,13 @@
         <v>1424160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3635,13 @@
         <v>238649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>284</v>
@@ -3632,13 +3650,13 @@
         <v>296132</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>511</v>
@@ -3647,13 +3665,13 @@
         <v>534781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3686,13 @@
         <v>3037895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3013</v>
@@ -3683,28 +3701,28 @@
         <v>3083066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6000</v>
       </c>
       <c r="N29" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3764,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3760,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA6284-B650-4442-BF01-8F79F44201E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C361A-69CE-41A0-932D-400A3DB8066E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4063,13 @@
         <v>26365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4060,13 +4078,13 @@
         <v>37297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4075,13 +4093,13 @@
         <v>63662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4114,13 @@
         <v>479162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4111,13 +4129,13 @@
         <v>486468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>896</v>
@@ -4126,10 +4144,10 @@
         <v>965630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>196</v>
@@ -4370,13 +4388,13 @@
         <v>59921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4421,10 +4439,10 @@
         <v>616275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>226</v>
@@ -4695,13 +4713,13 @@
         <v>57839</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4734,13 @@
         <v>253038</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -4731,13 +4749,13 @@
         <v>243136</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -4746,13 +4764,13 @@
         <v>496173</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4838,13 @@
         <v>61654</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4835,10 +4853,10 @@
         <v>77510</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>268</v>
@@ -4877,7 +4895,7 @@
         <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -4886,13 +4904,13 @@
         <v>616343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>1131</v>
@@ -4901,13 +4919,13 @@
         <v>1217477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4975,13 +4993,13 @@
         <v>81961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4990,13 +5008,13 @@
         <v>79862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -5005,13 +5023,13 @@
         <v>161823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5044,13 @@
         <v>697137</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>684</v>
@@ -5041,13 +5059,13 @@
         <v>743991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -5133,10 +5151,10 @@
         <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -5145,13 +5163,13 @@
         <v>354087</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>584</v>
@@ -5160,13 +5178,13 @@
         <v>639153</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5199,13 @@
         <v>3141713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>2974</v>
@@ -5196,13 +5214,13 @@
         <v>3204222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>5923</v>
@@ -5211,13 +5229,13 @@
         <v>6345935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A63372-8DB6-405B-BA6C-D4FE01E9B231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A181537F-D9AF-4B6D-BD64-DBADC19BD006}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5439,13 @@
         <v>34255</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5436,13 +5454,13 @@
         <v>35833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -5451,13 +5469,13 @@
         <v>70088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5490,13 @@
         <v>259506</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>246</v>
@@ -5487,13 +5505,13 @@
         <v>252870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>480</v>
@@ -5502,13 +5520,13 @@
         <v>512376</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,7 +5600,7 @@
         <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5591,13 +5609,13 @@
         <v>39083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5606,13 +5624,13 @@
         <v>79291</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5645,13 @@
         <v>462367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5642,13 +5660,13 @@
         <v>484001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>887</v>
@@ -5657,13 +5675,13 @@
         <v>946368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5749,13 @@
         <v>29997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5746,13 +5764,13 @@
         <v>46463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5761,13 +5779,13 @@
         <v>76460</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5800,13 @@
         <v>288568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -5797,13 +5815,13 @@
         <v>289846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>592</v>
@@ -5812,13 +5830,13 @@
         <v>578414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5904,13 @@
         <v>41942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5901,13 +5919,13 @@
         <v>51744</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5916,13 +5934,13 @@
         <v>93686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5955,13 @@
         <v>328022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -5952,13 +5970,13 @@
         <v>335539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -5967,13 +5985,13 @@
         <v>663561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6059,13 @@
         <v>30762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6056,13 +6074,13 @@
         <v>19487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6071,13 +6089,13 @@
         <v>50248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6110,13 @@
         <v>180459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6107,13 +6125,13 @@
         <v>199100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -6122,13 +6140,13 @@
         <v>379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6214,13 @@
         <v>29670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6211,13 +6229,13 @@
         <v>36217</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6226,13 +6244,13 @@
         <v>65887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6265,7 @@
         <v>233453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>398</v>
@@ -6268,7 +6286,7 @@
         <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6277,13 +6295,13 @@
         <v>470351</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6369,13 @@
         <v>121860</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>124</v>
@@ -6366,13 +6384,13 @@
         <v>138145</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>231</v>
@@ -6381,13 +6399,13 @@
         <v>260005</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6420,13 @@
         <v>534698</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -6417,13 +6435,13 @@
         <v>553149</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -6432,13 +6450,13 @@
         <v>1087847</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6524,13 @@
         <v>97401</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6542,7 +6560,7 @@
         <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6575,13 @@
         <v>681182</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6572,13 +6590,13 @@
         <v>725141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>1324</v>
@@ -6587,10 +6605,10 @@
         <v>1406323</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>437</v>
@@ -6679,10 +6697,10 @@
         <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>265</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -6691,13 +6709,13 @@
         <v>894093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6730,13 @@
         <v>2968255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>2929</v>
@@ -6727,13 +6745,13 @@
         <v>3076544</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
         <v>5755</v>
@@ -6742,13 +6760,13 @@
         <v>6044799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8F0A2-7C15-4254-BD70-C139ADF172F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401EC7B-2DE4-42DA-9B43-900DA641D6D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6845,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6952,13 +6970,13 @@
         <v>45907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -6967,13 +6985,13 @@
         <v>42795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -6982,13 +7000,13 @@
         <v>88701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +7021,13 @@
         <v>214391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -7018,13 +7036,13 @@
         <v>228608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>720</v>
@@ -7033,13 +7051,13 @@
         <v>442999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7125,13 @@
         <v>82123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -7122,13 +7140,13 @@
         <v>94239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -7137,13 +7155,13 @@
         <v>176362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7176,13 @@
         <v>437174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7173,13 +7191,13 @@
         <v>460327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -7188,13 +7206,13 @@
         <v>897502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7280,13 @@
         <v>61810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -7277,13 +7295,13 @@
         <v>81609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -7292,13 +7310,13 @@
         <v>143419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7331,13 @@
         <v>260430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -7328,13 +7346,13 @@
         <v>291675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
@@ -7343,13 +7361,13 @@
         <v>552105</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7435,13 @@
         <v>69480</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -7432,13 +7450,13 @@
         <v>87263</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7447,13 +7465,13 @@
         <v>156744</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7486,13 @@
         <v>252760</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -7483,13 +7501,13 @@
         <v>341293</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7498,13 +7516,13 @@
         <v>594052</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7590,13 @@
         <v>48574</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -7587,13 +7605,13 @@
         <v>45751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -7602,13 +7620,13 @@
         <v>94325</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7641,13 @@
         <v>148174</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -7638,7 +7656,7 @@
         <v>213762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>534</v>
@@ -7897,10 +7915,10 @@
         <v>95792</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>561</v>
@@ -7948,13 +7966,13 @@
         <v>708411</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>1289</v>
@@ -8025,7 +8043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8037,13 +8055,13 @@
         <v>107557</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -8052,13 +8070,13 @@
         <v>161229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>326</v>
@@ -8067,13 +8085,13 @@
         <v>268786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8106,13 @@
         <v>751871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>581</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
@@ -8103,13 +8121,13 @@
         <v>707205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>1498</v>
@@ -8118,13 +8136,13 @@
         <v>1459076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8210,13 @@
         <v>603268</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>1128</v>
@@ -8207,13 +8225,13 @@
         <v>665901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>1817</v>
@@ -8222,13 +8240,13 @@
         <v>1269169</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8261,13 @@
         <v>2781960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>4239</v>
@@ -8258,28 +8276,28 @@
         <v>3169680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>6926</v>
       </c>
       <c r="N29" s="7">
-        <v>5951640</v>
+        <v>5951639</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,7 +8339,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8335,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4265A1-0A66-4F71-85E3-920C0D30CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{871C7039-A4CC-40A7-A711-C7081FC7112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2C23A3A-E1A9-4B1C-ADF0-E99F8A413DB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40C911AA-91DF-4EE5-A14E-13A7FF4394C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1369 +77,1405 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>9,05%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
   </si>
   <si>
     <t>15,81%</t>
@@ -2271,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81C4533-23AA-4D2E-9B9F-35771A6423A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBDEBA-59BA-46BD-B7A9-854790FDAA35}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3683,7 +3719,7 @@
         <v>2987</v>
       </c>
       <c r="D29" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3734,7 +3770,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C361A-69CE-41A0-932D-400A3DB8066E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E3679-17C1-41B3-BCAC-6D442B88239B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4063,13 +4099,13 @@
         <v>26365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4078,13 +4114,13 @@
         <v>37297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4093,13 +4129,13 @@
         <v>63662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4150,13 @@
         <v>479162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4129,13 +4165,13 @@
         <v>486468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>896</v>
@@ -4144,13 +4180,13 @@
         <v>965630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4254,13 @@
         <v>24428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4233,13 +4269,13 @@
         <v>46909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4248,13 +4284,13 @@
         <v>71337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4305,13 @@
         <v>299618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4284,13 +4320,13 @@
         <v>294111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4299,13 +4335,13 @@
         <v>593729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4409,13 @@
         <v>59319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4388,13 +4424,13 @@
         <v>59921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4403,13 +4439,13 @@
         <v>119240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4460,13 @@
         <v>609401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -4439,13 +4475,13 @@
         <v>616275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1138</v>
@@ -4454,13 +4490,13 @@
         <v>1225676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4749,13 @@
         <v>57839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4770,13 @@
         <v>253038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -4749,13 +4785,13 @@
         <v>243136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -4764,13 +4800,13 @@
         <v>496173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4874,13 @@
         <v>61654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4853,13 +4889,13 @@
         <v>77510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -4868,13 +4904,13 @@
         <v>139164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4925,13 @@
         <v>601134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -4904,13 +4940,13 @@
         <v>616343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1131</v>
@@ -4919,13 +4955,13 @@
         <v>1217477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5029,13 @@
         <v>81961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5008,13 +5044,13 @@
         <v>79862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -5023,13 +5059,13 @@
         <v>161823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,10 +5080,10 @@
         <v>697137</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>291</v>
@@ -5065,7 +5101,7 @@
         <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -5151,7 +5187,7 @@
         <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>298</v>
@@ -5181,10 +5217,10 @@
         <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5241,7 @@
         <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>2974</v>
@@ -5232,10 +5268,10 @@
         <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A181537F-D9AF-4B6D-BD64-DBADC19BD006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F351639-4C61-49E3-A299-234882BF9FAB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5475,7 +5511,7 @@
         <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5526,13 @@
         <v>259506</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>246</v>
@@ -5505,13 +5541,13 @@
         <v>252870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>480</v>
@@ -5520,13 +5556,13 @@
         <v>512376</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5630,13 @@
         <v>40208</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5609,13 +5645,13 @@
         <v>39083</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5624,13 +5660,13 @@
         <v>79291</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5681,13 @@
         <v>462367</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5660,13 +5696,13 @@
         <v>484001</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>887</v>
@@ -5675,10 +5711,10 @@
         <v>946368</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>345</v>
@@ -5749,13 +5785,13 @@
         <v>29997</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5764,7 +5800,7 @@
         <v>46463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>349</v>
@@ -5800,13 +5836,13 @@
         <v>288568</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -5815,7 +5851,7 @@
         <v>289846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>357</v>
@@ -5922,10 +5958,10 @@
         <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5937,7 +5973,7 @@
         <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>368</v>
@@ -5973,10 +6009,10 @@
         <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -5991,7 +6027,7 @@
         <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6128,7 @@
         <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>383</v>
@@ -6146,7 +6182,7 @@
         <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,10 +6250,10 @@
         <v>29670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>393</v>
@@ -6232,10 +6268,10 @@
         <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6244,13 +6280,13 @@
         <v>65887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6301,13 @@
         <v>233453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6280,13 +6316,13 @@
         <v>236898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6295,13 +6331,13 @@
         <v>470351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6405,13 @@
         <v>121860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>124</v>
@@ -6384,13 +6420,13 @@
         <v>138145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>231</v>
@@ -6399,13 +6435,13 @@
         <v>260005</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6456,13 @@
         <v>534698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -6435,13 +6471,13 @@
         <v>553149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -6450,13 +6486,13 @@
         <v>1087847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6560,13 @@
         <v>97401</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6539,13 +6575,13 @@
         <v>101026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6554,13 +6590,13 @@
         <v>198427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6611,13 @@
         <v>681182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6590,13 +6626,13 @@
         <v>725141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>1324</v>
@@ -6605,13 +6641,13 @@
         <v>1406323</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6715,13 @@
         <v>426095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>409</v>
@@ -6694,13 +6730,13 @@
         <v>467998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -6709,13 +6745,13 @@
         <v>894093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6766,13 @@
         <v>2968255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>2929</v>
@@ -6745,13 +6781,13 @@
         <v>3076544</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
         <v>5755</v>
@@ -6760,13 +6796,13 @@
         <v>6044799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401EC7B-2DE4-42DA-9B43-900DA641D6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394F612-BA8D-41FD-8F46-4971022C0F77}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +7006,13 @@
         <v>45907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -6985,13 +7021,13 @@
         <v>42795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -7000,13 +7036,13 @@
         <v>88701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>468</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7057,13 @@
         <v>214391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -7036,13 +7072,13 @@
         <v>228608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>720</v>
@@ -7051,13 +7087,13 @@
         <v>442999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7161,13 @@
         <v>82123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -7140,13 +7176,13 @@
         <v>94239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -7155,13 +7191,13 @@
         <v>176362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7212,13 @@
         <v>437174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7191,13 +7227,13 @@
         <v>460327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -7206,13 +7242,13 @@
         <v>897502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7316,13 @@
         <v>61810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -7295,13 +7331,13 @@
         <v>81609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -7310,13 +7346,13 @@
         <v>143419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7367,13 @@
         <v>260430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -7346,13 +7382,13 @@
         <v>291675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
@@ -7361,13 +7397,13 @@
         <v>552105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7471,13 @@
         <v>69480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -7450,13 +7486,13 @@
         <v>87263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7465,13 +7501,13 @@
         <v>156744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7522,13 @@
         <v>252760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -7501,13 +7537,13 @@
         <v>341293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7516,13 +7552,13 @@
         <v>594052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7626,13 @@
         <v>48574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -7605,13 +7641,13 @@
         <v>45751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -7620,13 +7656,13 @@
         <v>94325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7677,13 @@
         <v>148174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -7656,13 +7692,13 @@
         <v>213762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>595</v>
@@ -7671,13 +7707,13 @@
         <v>361935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7781,13 @@
         <v>74783</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -7760,13 +7796,13 @@
         <v>57222</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -7775,13 +7811,13 @@
         <v>132005</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7832,13 @@
         <v>202440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
@@ -7811,13 +7847,13 @@
         <v>218400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>585</v>
@@ -7826,13 +7862,13 @@
         <v>420840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7936,13 @@
         <v>113034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -7915,13 +7951,13 @@
         <v>95792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -7930,13 +7966,13 @@
         <v>208826</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7987,13 @@
         <v>514720</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
@@ -7966,13 +8002,13 @@
         <v>708411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>1289</v>
@@ -7981,13 +8017,13 @@
         <v>1223131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8091,13 @@
         <v>107557</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -8070,13 +8106,13 @@
         <v>161229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>326</v>
@@ -8085,13 +8121,13 @@
         <v>268786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8142,13 @@
         <v>751871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
@@ -8121,13 +8157,13 @@
         <v>707205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>1498</v>
@@ -8136,13 +8172,13 @@
         <v>1459076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8246,13 @@
         <v>603268</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>1128</v>
@@ -8225,13 +8261,13 @@
         <v>665901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="M28" s="7">
         <v>1817</v>
@@ -8240,13 +8276,13 @@
         <v>1269169</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8297,13 @@
         <v>2781960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="H29" s="7">
         <v>4239</v>
@@ -8276,13 +8312,13 @@
         <v>3169680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="M29" s="7">
         <v>6926</v>
@@ -8291,13 +8327,13 @@
         <v>5951639</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{871C7039-A4CC-40A7-A711-C7081FC7112C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A5C029-F4EB-4335-A7CE-51DB7C658723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40C911AA-91DF-4EE5-A14E-13A7FF4394C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A880113-60FE-4DA8-8E05-6C8CC06E8CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1762 +140,1708 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>90,1%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>85,37%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>83,44%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBDEBA-59BA-46BD-B7A9-854790FDAA35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CF5BB3-8F36-48EF-94BB-3C9A1E193B3D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3391,13 +3337,13 @@
         <v>96638</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3358,13 @@
         <v>571402</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -3427,13 +3373,13 @@
         <v>585206</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1128</v>
@@ -3442,13 +3388,13 @@
         <v>1156608</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3450,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3462,13 @@
         <v>45297</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3531,13 +3477,13 @@
         <v>57849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -3546,13 +3492,13 @@
         <v>103146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3513,13 @@
         <v>698498</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>692</v>
@@ -3582,13 +3528,13 @@
         <v>725662</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1382</v>
@@ -3597,13 +3543,13 @@
         <v>1424160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3617,13 @@
         <v>238649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>284</v>
@@ -3686,13 +3632,13 @@
         <v>296132</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>511</v>
@@ -3701,13 +3647,13 @@
         <v>534781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,16 +3665,16 @@
         <v>2987</v>
       </c>
       <c r="D29" s="7">
-        <v>3037894</v>
+        <v>3037895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>3013</v>
@@ -3737,28 +3683,28 @@
         <v>3083066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>6000</v>
       </c>
       <c r="N29" s="7">
-        <v>6120960</v>
+        <v>6120959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3716,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3800,7 +3746,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3760,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E3679-17C1-41B3-BCAC-6D442B88239B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D74293-BE6A-41E7-AECA-2896CD2A1964}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,39 +3906,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,39 +3951,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +3996,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4045,13 @@
         <v>26365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4114,13 +4060,13 @@
         <v>37297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4129,13 +4075,13 @@
         <v>63662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4096,13 @@
         <v>479162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4165,13 +4111,13 @@
         <v>486468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>896</v>
@@ -4180,13 +4126,13 @@
         <v>965630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4200,13 @@
         <v>24428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4269,13 +4215,13 @@
         <v>46909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4284,13 +4230,13 @@
         <v>71337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4251,13 @@
         <v>299618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4320,13 +4266,13 @@
         <v>294111</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4335,13 +4281,13 @@
         <v>593729</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4355,13 @@
         <v>59319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4424,13 +4370,13 @@
         <v>59921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -4439,13 +4385,13 @@
         <v>119240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4406,13 @@
         <v>609401</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -4475,13 +4421,13 @@
         <v>616275</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1138</v>
@@ -4490,13 +4436,13 @@
         <v>1225676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,10 +4823,10 @@
         <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4889,13 +4835,13 @@
         <v>77510</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -4904,13 +4850,13 @@
         <v>139164</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4871,13 @@
         <v>601134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
         <v>569</v>
@@ -4940,13 +4886,13 @@
         <v>616343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
         <v>1131</v>
@@ -4955,13 +4901,13 @@
         <v>1217477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +4963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5029,13 +4975,13 @@
         <v>81961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5044,13 +4990,13 @@
         <v>79862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -5059,13 +5005,13 @@
         <v>161823</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5026,13 @@
         <v>697137</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>684</v>
@@ -5095,13 +5041,13 @@
         <v>743991</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -5187,10 +5133,10 @@
         <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -5199,13 +5145,13 @@
         <v>354087</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>584</v>
@@ -5214,13 +5160,13 @@
         <v>639153</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5181,13 @@
         <v>3141713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2974</v>
@@ -5250,13 +5196,13 @@
         <v>3204222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5923</v>
@@ -5265,13 +5211,13 @@
         <v>6345935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5273,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F351639-4C61-49E3-A299-234882BF9FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4585F78-4788-47D9-B805-659646439DFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5421,13 @@
         <v>34255</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5490,13 +5436,13 @@
         <v>35833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -5505,13 +5451,13 @@
         <v>70088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5472,13 @@
         <v>259506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>246</v>
@@ -5541,13 +5487,13 @@
         <v>252870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>480</v>
@@ -5556,13 +5502,13 @@
         <v>512376</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5576,13 @@
         <v>40208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5645,13 +5591,13 @@
         <v>39083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5660,13 +5606,13 @@
         <v>79291</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,10 +5630,10 @@
         <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5696,13 +5642,13 @@
         <v>484001</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>887</v>
@@ -5711,13 +5657,13 @@
         <v>946368</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5731,13 @@
         <v>29997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5800,13 +5746,13 @@
         <v>46463</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5815,13 +5761,13 @@
         <v>76460</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5782,13 @@
         <v>288568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -5851,13 +5797,13 @@
         <v>289846</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>592</v>
@@ -5866,13 +5812,13 @@
         <v>578414</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5886,13 @@
         <v>41942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5955,13 +5901,13 @@
         <v>51744</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5970,13 +5916,13 @@
         <v>93686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5937,13 @@
         <v>328022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -6006,13 +5952,13 @@
         <v>335539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -6021,13 +5967,13 @@
         <v>663561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6041,13 @@
         <v>30762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6110,13 +6056,13 @@
         <v>19487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6125,13 +6071,13 @@
         <v>50248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6092,13 @@
         <v>180459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6161,13 +6107,13 @@
         <v>199100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -6176,13 +6122,13 @@
         <v>379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6196,13 @@
         <v>29670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6265,13 +6211,13 @@
         <v>36217</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6280,13 +6226,13 @@
         <v>65887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6247,13 @@
         <v>233453</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6316,13 +6262,13 @@
         <v>236898</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6331,13 +6277,13 @@
         <v>470351</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6563,10 +6509,10 @@
         <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6575,13 +6521,13 @@
         <v>101026</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6590,13 +6536,13 @@
         <v>198427</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6557,13 @@
         <v>681182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6626,13 +6572,13 @@
         <v>725141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>1324</v>
@@ -6641,13 +6587,13 @@
         <v>1406323</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6661,13 @@
         <v>426095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>409</v>
@@ -6730,13 +6676,13 @@
         <v>467998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -6745,13 +6691,13 @@
         <v>894093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6712,13 @@
         <v>2968255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>2929</v>
@@ -6781,13 +6727,13 @@
         <v>3076544</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>5755</v>
@@ -6796,13 +6742,13 @@
         <v>6044799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394F612-BA8D-41FD-8F46-4971022C0F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4683E96-E712-44FB-B1E4-4371F27CC88C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7006,13 +6952,13 @@
         <v>45907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -7021,13 +6967,13 @@
         <v>42795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
@@ -7036,13 +6982,13 @@
         <v>88701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7003,13 @@
         <v>214391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -7072,13 +7018,13 @@
         <v>228608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M5" s="7">
         <v>720</v>
@@ -7087,13 +7033,13 @@
         <v>442999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7107,13 @@
         <v>82123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -7176,13 +7122,13 @@
         <v>94239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -7191,13 +7137,13 @@
         <v>176362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7158,13 @@
         <v>437174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7227,13 +7173,13 @@
         <v>460327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -7242,13 +7188,13 @@
         <v>897502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7262,13 @@
         <v>61810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -7331,13 +7277,13 @@
         <v>81609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -7346,13 +7292,13 @@
         <v>143419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7313,13 @@
         <v>260430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -7382,13 +7328,13 @@
         <v>291675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
@@ -7397,13 +7343,13 @@
         <v>552105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7417,13 @@
         <v>69480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -7486,13 +7432,13 @@
         <v>87263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -7501,13 +7447,13 @@
         <v>156744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7468,13 @@
         <v>252760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -7537,13 +7483,13 @@
         <v>341293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7552,13 +7498,13 @@
         <v>594052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7572,13 @@
         <v>48574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -7641,13 +7587,13 @@
         <v>45751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -7656,13 +7602,13 @@
         <v>94325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7623,13 @@
         <v>148174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -7692,13 +7638,13 @@
         <v>213762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>595</v>
@@ -7707,13 +7653,13 @@
         <v>361935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7727,13 @@
         <v>74783</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -7796,13 +7742,13 @@
         <v>57222</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -7811,13 +7757,13 @@
         <v>132005</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7778,13 @@
         <v>202440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
@@ -7847,13 +7793,13 @@
         <v>218400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>585</v>
@@ -7862,13 +7808,13 @@
         <v>420840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7882,13 @@
         <v>113034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -7951,13 +7897,13 @@
         <v>95792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -7966,13 +7912,13 @@
         <v>208826</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7933,13 @@
         <v>514720</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
@@ -8002,13 +7948,13 @@
         <v>708411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>568</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>1289</v>
@@ -8017,13 +7963,13 @@
         <v>1223131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,7 +8025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8094,10 +8040,10 @@
         <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -8106,13 +8052,13 @@
         <v>161229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>326</v>
@@ -8121,13 +8067,13 @@
         <v>268786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8088,13 @@
         <v>751871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>28</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
@@ -8157,13 +8103,13 @@
         <v>707205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>1498</v>
@@ -8172,13 +8118,13 @@
         <v>1459076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8192,13 @@
         <v>603268</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>348</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
         <v>1128</v>
@@ -8261,13 +8207,13 @@
         <v>665901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
         <v>1817</v>
@@ -8276,13 +8222,13 @@
         <v>1269169</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8243,13 @@
         <v>2781960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>610</v>
+        <v>355</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="H29" s="7">
         <v>4239</v>
@@ -8312,28 +8258,28 @@
         <v>3169680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="M29" s="7">
         <v>6926</v>
       </c>
       <c r="N29" s="7">
-        <v>5951639</v>
+        <v>5951640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8321,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8389,7 +8335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A5C029-F4EB-4335-A7CE-51DB7C658723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E2F06C-1790-43D2-B695-CA95C4AA479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A880113-60FE-4DA8-8E05-6C8CC06E8CB1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B226E206-1869-4CCA-B4D7-3FE122268B31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>5,22%</t>
@@ -686,459 +737,471 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
     <t>85,31%</t>
   </si>
   <si>
@@ -1175,9 +1238,6 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
     <t>15,08%</t>
   </si>
   <si>
@@ -1202,9 +1262,6 @@
     <t>84,92%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
     <t>11,28%</t>
   </si>
   <si>
@@ -1358,9 +1415,6 @@
     <t>12,55%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
     <t>13,79%</t>
   </si>
   <si>
@@ -1388,9 +1442,6 @@
     <t>86,21%</t>
   </si>
   <si>
-    <t>88,63%</t>
-  </si>
-  <si>
     <t>86,8%</t>
   </si>
   <si>
@@ -1412,436 +1463,442 @@
     <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>17,64%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>24,74%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CF5BB3-8F36-48EF-94BB-3C9A1E193B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77340D09-0420-4BD7-BE25-D46E76171E27}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3665,7 +3722,7 @@
         <v>2987</v>
       </c>
       <c r="D29" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>168</v>
@@ -3680,7 +3737,7 @@
         <v>3013</v>
       </c>
       <c r="I29" s="7">
-        <v>3083066</v>
+        <v>3083065</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>171</v>
@@ -3695,7 +3752,7 @@
         <v>6000</v>
       </c>
       <c r="N29" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>173</v>
@@ -3716,7 +3773,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3731,7 +3788,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3746,7 +3803,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D74293-BE6A-41E7-AECA-2896CD2A1964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2746192B-0E5B-429B-A35E-F2B61C3D10D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3902,43 +3959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23378</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25632</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>49010</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,43 +4010,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="D5" s="7">
+        <v>271360</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="I5" s="7">
+        <v>261613</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>490</v>
+      </c>
+      <c r="N5" s="7">
+        <v>532973</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,43 +4061,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4120,13 @@
         <v>26365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4060,13 +4135,13 @@
         <v>37297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4075,13 +4150,13 @@
         <v>63662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4171,13 @@
         <v>479162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -4111,13 +4186,13 @@
         <v>486468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>896</v>
@@ -4126,13 +4201,13 @@
         <v>965630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4275,13 @@
         <v>24428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4215,13 +4290,13 @@
         <v>46909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4230,13 +4305,13 @@
         <v>71337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4326,13 @@
         <v>299618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4266,13 +4341,13 @@
         <v>294111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4281,13 +4356,13 @@
         <v>593729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,49 +4424,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>59319</v>
+        <v>35942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>59921</v>
+        <v>34289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>119240</v>
+        <v>70230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,49 +4475,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>609401</v>
+        <v>338040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>571</v>
+        <v>338</v>
       </c>
       <c r="I14" s="7">
-        <v>616275</v>
+        <v>354662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>1138</v>
+        <v>648</v>
       </c>
       <c r="N14" s="7">
-        <v>1225676</v>
+        <v>692703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4466,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4481,10 +4556,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4510,13 +4585,13 @@
         <v>10394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4525,13 +4600,13 @@
         <v>15693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4540,13 +4615,13 @@
         <v>26087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4636,13 @@
         <v>202224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -4576,13 +4651,13 @@
         <v>203898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -4591,13 +4666,13 @@
         <v>406122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4740,13 @@
         <v>20943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -4680,13 +4755,13 @@
         <v>36895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4695,13 +4770,13 @@
         <v>57839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4791,13 @@
         <v>253038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -4731,13 +4806,13 @@
         <v>243136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -4746,13 +4821,13 @@
         <v>496173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4895,13 @@
         <v>61654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4835,13 +4910,13 @@
         <v>77510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -4850,13 +4925,13 @@
         <v>139164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,10 +4946,10 @@
         <v>601134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>84</v>
@@ -4886,10 +4961,10 @@
         <v>616343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>63</v>
@@ -4901,13 +4976,13 @@
         <v>1217477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +5050,13 @@
         <v>81961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4990,13 +5065,13 @@
         <v>79862</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -5005,13 +5080,13 @@
         <v>161823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5101,13 @@
         <v>697137</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>684</v>
@@ -5041,13 +5116,13 @@
         <v>743991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>1329</v>
@@ -5056,13 +5131,13 @@
         <v>1441128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5205,13 @@
         <v>285066</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -5145,13 +5220,13 @@
         <v>354087</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>584</v>
@@ -5160,13 +5235,13 @@
         <v>639153</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5256,13 @@
         <v>3141713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H29" s="7">
         <v>2974</v>
@@ -5196,13 +5271,13 @@
         <v>3204222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>5923</v>
@@ -5211,13 +5286,13 @@
         <v>6345935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4585F78-4788-47D9-B805-659646439DFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC46C9E-3124-45E7-9370-A064B7A78BEB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5496,13 @@
         <v>34255</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5436,13 +5511,13 @@
         <v>35833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -5451,13 +5526,13 @@
         <v>70088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,10 +5547,10 @@
         <v>259506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>158</v>
@@ -5487,13 +5562,13 @@
         <v>252870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>480</v>
@@ -5502,10 +5577,10 @@
         <v>512376</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>141</v>
@@ -5576,13 +5651,13 @@
         <v>40208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5591,13 +5666,13 @@
         <v>39083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5606,13 +5681,13 @@
         <v>79291</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5702,13 @@
         <v>462367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5642,13 +5717,13 @@
         <v>484001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>887</v>
@@ -5657,13 +5732,13 @@
         <v>946368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5806,13 @@
         <v>29997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5746,13 +5821,13 @@
         <v>46463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5761,13 +5836,13 @@
         <v>76460</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5857,13 @@
         <v>288568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -5797,13 +5872,13 @@
         <v>289846</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>592</v>
@@ -5812,13 +5887,13 @@
         <v>578414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5961,13 @@
         <v>41942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5904,10 +5979,10 @@
         <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5916,13 +5991,13 @@
         <v>93686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +6012,13 @@
         <v>328022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -5955,10 +6030,10 @@
         <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -5967,13 +6042,13 @@
         <v>663561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6116,13 @@
         <v>30762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6059,10 +6134,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -6071,13 +6146,13 @@
         <v>50248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6167,13 @@
         <v>180459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6110,10 +6185,10 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -6122,13 +6197,13 @@
         <v>379560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6271,13 @@
         <v>29670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6211,13 +6286,13 @@
         <v>36217</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6226,13 +6301,13 @@
         <v>65887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6322,13 @@
         <v>233453</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -6262,13 +6337,13 @@
         <v>236898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6277,13 +6352,13 @@
         <v>470351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6426,13 @@
         <v>121860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>124</v>
@@ -6366,13 +6441,13 @@
         <v>138145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>231</v>
@@ -6381,13 +6456,13 @@
         <v>260005</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6477,13 @@
         <v>534698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -6417,13 +6492,13 @@
         <v>553149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -6432,13 +6507,13 @@
         <v>1087847</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6581,13 @@
         <v>97401</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6521,13 +6596,13 @@
         <v>101026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6536,13 +6611,13 @@
         <v>198427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,10 +6632,10 @@
         <v>681182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>67</v>
@@ -6572,13 +6647,13 @@
         <v>725141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>1324</v>
@@ -6587,13 +6662,13 @@
         <v>1406323</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6736,13 @@
         <v>426095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>439</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>409</v>
@@ -6676,13 +6751,13 @@
         <v>467998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -6691,13 +6766,13 @@
         <v>894093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6787,13 @@
         <v>2968255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>2929</v>
@@ -6727,13 +6802,13 @@
         <v>3076544</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>5755</v>
@@ -6742,13 +6817,13 @@
         <v>6044799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4683E96-E712-44FB-B1E4-4371F27CC88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47336B9A-2D71-4A3C-B2FA-31C7F1C746E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6845,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6949,46 +7024,46 @@
         <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>45907</v>
+        <v>54989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>42795</v>
+        <v>43903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>149</v>
       </c>
       <c r="N4" s="7">
-        <v>88701</v>
+        <v>98892</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,46 +7075,46 @@
         <v>271</v>
       </c>
       <c r="D5" s="7">
-        <v>214391</v>
+        <v>256454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
       </c>
       <c r="I5" s="7">
-        <v>228608</v>
+        <v>245732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>720</v>
       </c>
       <c r="N5" s="7">
-        <v>442999</v>
+        <v>502185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,7 +7126,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7066,7 +7141,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7081,7 +7156,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7104,46 +7179,46 @@
         <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>82123</v>
+        <v>79646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>94239</v>
+        <v>86845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
       </c>
       <c r="N7" s="7">
-        <v>176362</v>
+        <v>166492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,46 +7230,46 @@
         <v>314</v>
       </c>
       <c r="D8" s="7">
-        <v>437174</v>
+        <v>438744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>460327</v>
+        <v>428124</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
       </c>
       <c r="N8" s="7">
-        <v>897502</v>
+        <v>866867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7281,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7221,7 +7296,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7236,7 +7311,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7259,46 +7334,46 @@
         <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>61810</v>
+        <v>59697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>81609</v>
+        <v>75065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
       </c>
       <c r="N10" s="7">
-        <v>143419</v>
+        <v>134763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,46 +7385,46 @@
         <v>285</v>
       </c>
       <c r="D11" s="7">
-        <v>260430</v>
+        <v>256353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
       </c>
       <c r="I11" s="7">
-        <v>291675</v>
+        <v>274063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>686</v>
       </c>
       <c r="N11" s="7">
-        <v>552105</v>
+        <v>530415</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,7 +7436,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7376,7 +7451,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7391,7 +7466,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7414,46 +7489,46 @@
         <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>69480</v>
+        <v>67475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
       </c>
       <c r="I13" s="7">
-        <v>87263</v>
+        <v>81489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>509</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
       </c>
       <c r="N13" s="7">
-        <v>156744</v>
+        <v>148964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,46 +7540,46 @@
         <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>252760</v>
+        <v>245082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
       </c>
       <c r="I14" s="7">
-        <v>341293</v>
+        <v>394229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>519</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
       </c>
       <c r="N14" s="7">
-        <v>594052</v>
+        <v>639310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,7 +7591,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7531,7 +7606,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7546,7 +7621,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7569,46 +7644,46 @@
         <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>48574</v>
+        <v>44213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>45751</v>
+        <v>41179</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
       </c>
       <c r="N16" s="7">
-        <v>94325</v>
+        <v>85392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,46 +7695,46 @@
         <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>148174</v>
+        <v>134529</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
       </c>
       <c r="I17" s="7">
-        <v>213762</v>
+        <v>217600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>595</v>
       </c>
       <c r="N17" s="7">
-        <v>361935</v>
+        <v>352129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,7 +7746,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7686,7 +7761,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7701,7 +7776,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7724,46 +7799,46 @@
         <v>115</v>
       </c>
       <c r="D19" s="7">
-        <v>74783</v>
+        <v>72481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
       </c>
       <c r="I19" s="7">
-        <v>57222</v>
+        <v>53474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
       </c>
       <c r="N19" s="7">
-        <v>132005</v>
+        <v>125955</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,46 +7850,46 @@
         <v>256</v>
       </c>
       <c r="D20" s="7">
-        <v>202440</v>
+        <v>197155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>329</v>
       </c>
       <c r="I20" s="7">
-        <v>218400</v>
+        <v>203582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>585</v>
       </c>
       <c r="N20" s="7">
-        <v>420840</v>
+        <v>400737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +7901,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7841,7 +7916,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7856,7 +7931,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7879,46 +7954,46 @@
         <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>113034</v>
+        <v>109292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>95792</v>
+        <v>87571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>576</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
       </c>
       <c r="N22" s="7">
-        <v>208826</v>
+        <v>196863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,46 +8005,46 @@
         <v>480</v>
       </c>
       <c r="D23" s="7">
-        <v>514720</v>
+        <v>514987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
       </c>
       <c r="I23" s="7">
-        <v>708411</v>
+        <v>761694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>1289</v>
       </c>
       <c r="N23" s="7">
-        <v>1223131</v>
+        <v>1276681</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>570</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>572</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,7 +8056,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7996,7 +8071,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8011,7 +8086,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8034,46 +8109,46 @@
         <v>112</v>
       </c>
       <c r="D25" s="7">
-        <v>107557</v>
+        <v>91598</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>586</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>588</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
       </c>
       <c r="I25" s="7">
-        <v>161229</v>
+        <v>132983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="M25" s="7">
         <v>326</v>
       </c>
       <c r="N25" s="7">
-        <v>268786</v>
+        <v>224581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>578</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,46 +8160,46 @@
         <v>650</v>
       </c>
       <c r="D26" s="7">
-        <v>751871</v>
+        <v>837122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
       </c>
       <c r="I26" s="7">
-        <v>707205</v>
+        <v>584748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>1498</v>
       </c>
       <c r="N26" s="7">
-        <v>1459076</v>
+        <v>1421871</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,7 +8211,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8151,7 +8226,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8166,7 +8241,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8189,46 +8264,46 @@
         <v>689</v>
       </c>
       <c r="D28" s="7">
-        <v>603268</v>
+        <v>579391</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="H28" s="7">
         <v>1128</v>
       </c>
       <c r="I28" s="7">
-        <v>665901</v>
+        <v>602510</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="M28" s="7">
         <v>1817</v>
       </c>
       <c r="N28" s="7">
-        <v>1269169</v>
+        <v>1181902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,46 +8315,46 @@
         <v>2687</v>
       </c>
       <c r="D29" s="7">
-        <v>2781960</v>
+        <v>2880426</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>611</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="H29" s="7">
         <v>4239</v>
       </c>
       <c r="I29" s="7">
-        <v>3169680</v>
+        <v>3109770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="M29" s="7">
         <v>6926</v>
       </c>
       <c r="N29" s="7">
-        <v>5951640</v>
+        <v>5990195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,7 +8366,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8306,7 +8381,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8321,7 +8396,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
